--- a/tests/analysis.xlsx
+++ b/tests/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/general/Documents/Developer/Python/PileAnalyser/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E559A09-263B-1A47-8F0E-6214FAB71BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983D410-03E6-0B41-8282-E753861805D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26300" yWindow="4880" windowWidth="22120" windowHeight="20540" xr2:uid="{2908A429-43FE-1E4A-B2E4-C45306170B99}"/>
+    <workbookView xWindow="30280" yWindow="3440" windowWidth="22580" windowHeight="20540" xr2:uid="{2908A429-43FE-1E4A-B2E4-C45306170B99}"/>
   </bookViews>
   <sheets>
     <sheet name="杭水平力の検討" sheetId="3" r:id="rId1"/>
@@ -497,12 +497,12 @@
     <numFmt numFmtId="178" formatCode="0.000.E+00"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-    <numFmt numFmtId="184" formatCode="0.00.E+00"/>
-    <numFmt numFmtId="185" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="191" formatCode="0.00000"/>
-    <numFmt numFmtId="195" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="197" formatCode="0.000000"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="182" formatCode="0.00.E+00"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.00000"/>
+    <numFmt numFmtId="185" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="186" formatCode="0.000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -726,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,10 +751,10 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -763,12 +763,30 @@
     </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,67 +796,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -856,20 +931,8 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,86 +943,27 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="191" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1340,13 +1344,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D72AEB4-1F71-2245-9AC4-08164A56DD2B}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="37" width="2.59765625" style="3" customWidth="1"/>
+    <col min="1" max="21" width="2.59765625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.796875" style="3" customWidth="1"/>
+    <col min="23" max="24" width="2.59765625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="7.3984375" style="3" customWidth="1"/>
+    <col min="26" max="37" width="2.59765625" style="3" customWidth="1"/>
     <col min="38" max="88" width="8" style="3" customWidth="1"/>
     <col min="89" max="16384" width="17.796875" style="3"/>
   </cols>
@@ -1444,11 +1452,11 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="77">
+      <c r="K3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="18" t="s">
         <v>60</v>
       </c>
       <c r="N3" s="5"/>
@@ -1516,161 +1524,161 @@
     <row r="5" spans="1:36" ht="12" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="59" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="59" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="65" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="65" t="s">
+      <c r="L5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="59" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="60"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="59" t="s">
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="60"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="59" t="s">
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="59" t="s">
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="59" t="s">
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="55" t="s">
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="56"/>
+      <c r="AJ5" s="52"/>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="58"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="18">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25">
         <v>200</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24">
         <v>100</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="28">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="43">
         <v>200</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="19">
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="24">
         <v>14</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="28">
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="43">
         <v>235</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="24">
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="55">
         <f>MIN(Q7,(0.8+2.5*(H7-K3)/(E7/2))*Q7)</f>
         <v>235</v>
       </c>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="28">
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="43">
         <f>PI()*((E7-2)^2-(E7-H7*2)^2)/4</f>
         <v>30790.749597833561</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="32">
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="56">
         <v>205000</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="33">
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="57">
         <f>PI()*((E7-2)^4-(E7-2*H7)^4)/64/10^(12)</f>
         <v>7.5445034202091673E-5</v>
       </c>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="18">
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="25">
         <v>1</v>
       </c>
-      <c r="AJ7" s="18"/>
+      <c r="AJ7" s="25"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="2"/>
@@ -1791,127 +1799,127 @@
     <row r="11" spans="1:36" ht="23" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="48" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48" t="s">
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="50" t="s">
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="48" t="s">
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="48" t="s">
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="48" t="s">
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="48" t="s">
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="49" t="s">
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="18">
+      <c r="C12" s="25">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="30">
+      <c r="D12" s="25"/>
+      <c r="E12" s="42">
         <v>3</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="27">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="65">
         <v>80</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="18">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="25">
         <f>700*E12</f>
         <v>2100</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="79">
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="36">
         <f>H12*K12*(E7/10)^(-3/4)</f>
         <v>17763.837225801475</v>
       </c>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="29">
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="64">
         <v>1</v>
       </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30">
-        <v>10</v>
-      </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="23">
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="82">
+        <v>50.628</v>
+      </c>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="34">
         <f>(U12/10)^(-1/2)</f>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="28">
+        <v>0.44443127630541235</v>
+      </c>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="43">
         <f>N12*R12*X12</f>
-        <v>17763.837225801475</v>
-      </c>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="31">
+        <v>7894.8048503445452</v>
+      </c>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="43"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="44">
         <f>((AA12*E7/1000)/(4*AA7*AE7*1000))^(1/4)</f>
-        <v>0.48953141482595769</v>
-      </c>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="23">
+        <v>0.39969776581467231</v>
+      </c>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="33">
         <f>AE12*N7</f>
-        <v>6.853439807563408</v>
-      </c>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
+        <v>5.5957687214054124</v>
+      </c>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="2"/>
@@ -2039,9 +2047,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2079,9 +2087,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2119,11 +2127,11 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="74">
+      <c r="H18" s="21">
         <v>0.1</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2219,12 +2227,12 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="71">
+      <c r="AB20" s="41">
         <v>200</v>
       </c>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="9"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
@@ -2234,119 +2242,119 @@
     <row r="21" spans="1:36" ht="23" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="52" t="s">
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="48" t="s">
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="48" t="s">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="48" t="s">
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="48" t="s">
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="48" t="s">
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AG21" s="49"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
       <c r="AJ21" s="6"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="18">
+      <c r="C22" s="25">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25">
         <f>E7</f>
         <v>200</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="35">
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="76">
         <v>1</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36">
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77">
         <f>AE7</f>
         <v>7.5445034202091673E-5</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39">
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80">
         <f>H22*L22*AE12^3</f>
-        <v>8.850592821189248E-6</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="40">
+        <v>4.8175454638729364E-6</v>
+      </c>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="37">
         <f>SUM(P22:S22)</f>
-        <v>8.850592821189248E-6</v>
-      </c>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="72">
+        <v>4.8175454638729364E-6</v>
+      </c>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="40">
         <f>P22/T22</f>
         <v>1</v>
       </c>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="19">
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="24">
         <f>$AB$20*X22</f>
         <v>200</v>
       </c>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19">
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24">
         <f>AB22/H22</f>
         <v>200</v>
       </c>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="19"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
       <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36">
@@ -2468,124 +2476,124 @@
     <row r="26" spans="1:36" ht="23" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="52" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="48" t="s">
+      <c r="F26" s="74"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="48" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="48" t="s">
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="48" t="s">
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="48" t="s">
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="48" t="s">
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="48" t="s">
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="48" t="s">
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
       <c r="AJ26" s="6"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="18">
+      <c r="C27" s="25">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="43">
+      <c r="D27" s="25"/>
+      <c r="E27" s="68">
         <v>1</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46">
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71">
         <f>2-E27</f>
         <v>1</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="23">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="33">
         <f>E27</f>
         <v>1</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="47">
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="72">
         <f>IF(E27-1=0,0.208,EXP(-ATAN(1/(1-E27)))*SQRT((1-E27)^2+1))</f>
         <v>0.20799999999999999</v>
       </c>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47">
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72">
         <f>IF(E27=1,1.57,ATAN(1/(1-E27)))</f>
         <v>1.57</v>
       </c>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="80">
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="35">
         <f>AF22*H27/(4*(AA7*10^3)*(AE12^3)*AE7)*10^3</f>
-        <v>27.557751661613242</v>
-      </c>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="19">
+        <v>50.627947541632828</v>
+      </c>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="36">
         <f>AF22*K27/(2*AE12)</f>
-        <v>204.27698196969206</v>
-      </c>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="81">
+        <v>250.18903920110216</v>
+      </c>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="34">
         <f>AF22*N27/2/AE12</f>
-        <v>42.489612249695952</v>
-      </c>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="23">
+        <v>52.039320153829252</v>
+      </c>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="33">
         <f>PI()/AE12/2</f>
-        <v>3.2087753292673957</v>
-      </c>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="23"/>
-      <c r="AH27" s="23"/>
-      <c r="AI27" s="23"/>
+        <v>3.9299602378143565</v>
+      </c>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
       <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36">
@@ -2745,52 +2753,52 @@
     <row r="32" spans="1:36">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="34" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34" t="s">
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="49" t="s">
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="48" t="s">
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
-      <c r="AB32" s="49" t="s">
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49" t="s">
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AF32" s="49"/>
+      <c r="AF32" s="23"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
@@ -2799,36 +2807,36 @@
     <row r="33" spans="1:36">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
@@ -2837,62 +2845,62 @@
     <row r="34" spans="1:36">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="18">
+      <c r="C34" s="25">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19">
+      <c r="D34" s="25"/>
+      <c r="E34" s="24">
         <v>0</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="23">
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="33">
         <f>E34*10^3/W7</f>
         <v>0</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="19">
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="24">
         <f>MAX(W27,Z27)</f>
-        <v>204.27698196969206</v>
-      </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="24">
+        <v>250.18903920110216</v>
+      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="55">
         <f>((E7-2)/2)*(M34*10^6)/(AE7*10^12)</f>
-        <v>268.05503409048526</v>
-      </c>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="25">
+        <v>328.30146003462761</v>
+      </c>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="81">
         <f>I34+Q34</f>
-        <v>268.05503409048526</v>
-      </c>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="20">
+        <v>328.30146003462761</v>
+      </c>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="26">
         <f>T7</f>
         <v>235</v>
       </c>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="21">
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="27">
         <f>U34/Y34</f>
-        <v>1.1406597195339798</v>
-      </c>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="22" t="str">
+        <v>1.3970274895090538</v>
+      </c>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="28" t="str">
         <f>IF(AB34&lt;1,"OK","NG")</f>
         <v>NG</v>
       </c>
-      <c r="AF34" s="22"/>
+      <c r="AF34" s="28"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
@@ -2940,46 +2948,46 @@
     <row r="36" spans="1:36">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="34" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="75" t="s">
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="49" t="s">
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49" t="s">
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AF36" s="49"/>
+      <c r="AF36" s="23"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
@@ -2988,36 +2996,36 @@
     <row r="37" spans="1:36">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
@@ -3026,54 +3034,54 @@
     <row r="38" spans="1:36">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="18">
+      <c r="C38" s="25">
         <f>C7</f>
         <v>1</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19">
+      <c r="D38" s="25"/>
+      <c r="E38" s="24">
         <f>AF22</f>
         <v>200</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19">
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24">
         <f>2*E38*10^3/W7</f>
         <v>12.990914648864022</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="20">
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="26">
         <f>Q7/SQRT(3)</f>
         <v>135.67731325956206</v>
       </c>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="21">
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="27">
         <f>I38/Y38</f>
         <v>9.5748613653716119E-2</v>
       </c>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="22" t="str">
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="28" t="str">
         <f>IF(AB38&lt;1,"OK","NG")</f>
         <v>OK</v>
       </c>
-      <c r="AF38" s="22"/>
+      <c r="AF38" s="28"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
@@ -3081,6 +3089,101 @@
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="W5:Z6"/>
+    <mergeCell ref="AA5:AD6"/>
+    <mergeCell ref="AE5:AH6"/>
+    <mergeCell ref="AI5:AJ6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="N5:P6"/>
+    <mergeCell ref="Q5:S6"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Z27:AD27"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="U34:X34"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
@@ -3105,101 +3208,6 @@
     <mergeCell ref="AB32:AD33"/>
     <mergeCell ref="AE32:AF33"/>
     <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Z27:AD27"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="W5:Z6"/>
-    <mergeCell ref="AA5:AD6"/>
-    <mergeCell ref="AE5:AH6"/>
-    <mergeCell ref="AI5:AJ6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="N5:P6"/>
-    <mergeCell ref="Q5:S6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:AJ2 N5 K5 H5 Q5 AI5 AE5 AA5 W5 T5 A28:S28 V28 X28:AJ28 A8:AJ10 A5:C5 E5 A6:B6 A23:AJ25 E26:AJ26 A37:B37 A36:C36 A33:B33 A32:C32 A29:AJ30 A31:AI31 A35:AI35 A13:AJ15 E21:AJ21 A19:AJ20 A16:H18 K16:AJ18 T7:AJ7 A7:C7 A11:C12 E11:AJ12 A21:C22 E22:T22 X22:AJ22 AJ27 A26:C27 A34:C34 E32:AJ34 E36:AJ38 A38:C38 A4:AJ4 A3:K3 M3:AJ3">
